--- a/bots/crawl_ch/output/vegi_coop_2022-05-19.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-05-19.xlsx
@@ -585,7 +585,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2653,7 +2653,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -3993,155 +3993,155 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6430286</t>
+          <t>3090545</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Primagusto Clementinen ca. 1kg</t>
+          <t>Naturaplan Bio Äpfel Gala ca. 750g</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/primagusto-clementinen-ca/p/6430286</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-gala-ca/p/3090545</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>750g</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F49" t="n">
         <v>4.5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>5.95/1kg</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Primagusto Clementinen ca. 1kg 5.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Äpfel Gala ca. 750g 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3090545</t>
+          <t>6430286</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel Gala ca. 750g</t>
+          <t>Primagusto Clementinen ca. 1kg</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-gala-ca/p/3090545</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/primagusto-clementinen-ca/p/6430286</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>750g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F50" t="n">
         <v>4.5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>5.95/1kg</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel Gala ca. 750g 4.70 Schweizer Franken</t>
+          <t>Primagusto Clementinen ca. 1kg 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4215,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5305,7 +5305,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5523,7 +5523,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6123,7 +6123,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6419,7 +6419,7 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6715,7 +6715,7 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7011,7 +7011,7 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7085,7 +7085,7 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7315,7 +7315,7 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7463,7 +7463,7 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7537,7 +7537,7 @@
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -8137,36 +8137,36 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4826444</t>
+          <t>4967037</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kohlrabi 1 Stück</t>
+          <t>Ünique Peperoni ca. 1kg</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/naturaplan-bio-kohlrabi-1-stueck/p/4826444</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/peperoni/uenique-peperoni-ca/p/4967037</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="F105" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -8175,72 +8175,72 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>3.30/1ST</t>
+          <t>2.95/1kg</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'peperoni']</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kohlrabi 1 Stück 3.30 Schweizer Franken</t>
+          <t>Ünique Peperoni ca. 1kg 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>4967037</t>
+          <t>4826444</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ünique Peperoni ca. 1kg</t>
+          <t>Naturaplan Bio Kohlrabi 1 Stück</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/peperoni/uenique-peperoni-ca/p/4967037</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/naturaplan-bio-kohlrabi-1-stueck/p/4826444</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -8249,43 +8249,43 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2.95/1kg</t>
+          <t>3.30/1ST</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'peperoni']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Ünique Peperoni ca. 1kg 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Kohlrabi 1 Stück 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8437,7 @@
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -8733,7 +8733,7 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -8807,7 +8807,7 @@
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -8879,7 +8879,7 @@
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -8957,7 +8957,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9179,7 +9179,7 @@
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9253,7 +9253,7 @@
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9475,7 +9475,7 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9775,7 +9775,7 @@
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9923,7 +9923,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -9997,7 +9997,7 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10217,7 +10217,7 @@
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10291,7 +10291,7 @@
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10365,7 +10365,7 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10439,7 +10439,7 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10513,7 +10513,7 @@
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10587,7 +10587,7 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10661,7 +10661,7 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10813,7 +10813,7 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10887,7 +10887,7 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11117,7 +11117,7 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11195,7 +11195,7 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11343,7 +11343,7 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11417,7 +11417,7 @@
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11491,7 +11491,7 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11635,7 +11635,7 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11787,7 +11787,7 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -11933,7 +11933,7 @@
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12007,7 +12007,7 @@
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12159,7 +12159,7 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12233,7 +12233,7 @@
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12307,7 +12307,7 @@
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12507,7 +12507,7 @@
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12581,7 +12581,7 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12653,7 +12653,7 @@
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12801,7 +12801,7 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13027,7 +13027,7 @@
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13175,7 +13175,7 @@
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13249,7 +13249,7 @@
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13323,7 +13323,7 @@
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13397,7 +13397,7 @@
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13471,7 +13471,7 @@
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13529,7 +13529,7 @@
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13581,7 +13581,7 @@
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13655,7 +13655,7 @@
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13727,7 +13727,7 @@
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13875,7 +13875,7 @@
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14023,7 +14023,7 @@
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14171,7 +14171,7 @@
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14249,7 +14249,7 @@
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14323,7 +14323,7 @@
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14401,7 +14401,7 @@
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14475,7 +14475,7 @@
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14783,7 +14783,7 @@
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15009,7 +15009,7 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15239,7 +15239,7 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15317,7 +15317,7 @@
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15469,7 +15469,7 @@
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15543,7 +15543,7 @@
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15691,7 +15691,7 @@
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15765,7 +15765,7 @@
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15839,7 +15839,7 @@
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -16065,7 +16065,7 @@
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -16141,33 +16141,33 @@
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>4981397</t>
+          <t>3120235</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Betty Bossi Asian Wok Shanghai</t>
+          <t>Naturaplan Bio Gartenkresse</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-asian-wok-shanghai/p/4981397</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/naturaplan-bio-gartenkresse/p/3120235</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>30g</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F213" t="n">
         <v>4.5</v>
@@ -16179,12 +16179,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>9.83/100g</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -16194,7 +16194,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -16204,12 +16204,12 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>Betty Bossi Asian Wok Shanghai 5.30 Schweizer Franken</t>
+          <t>Naturaplan Bio Gartenkresse 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -16219,33 +16219,33 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>3120235</t>
+          <t>4981397</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Gartenkresse</t>
+          <t>Betty Bossi Asian Wok Shanghai</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/naturaplan-bio-gartenkresse/p/3120235</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-asian-wok-shanghai/p/4981397</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>30g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F214" t="n">
         <v>4.5</v>
@@ -16257,12 +16257,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>9.83/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -16272,7 +16272,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -16282,12 +16282,12 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Gartenkresse 2.95 Schweizer Franken</t>
+          <t>Betty Bossi Asian Wok Shanghai 5.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -16297,7 +16297,7 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -16527,7 +16527,7 @@
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -16605,7 +16605,7 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -16683,7 +16683,7 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -16761,7 +16761,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -16835,7 +16835,7 @@
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -16983,7 +16983,7 @@
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17057,7 +17057,7 @@
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17131,7 +17131,7 @@
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17205,7 +17205,7 @@
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17279,7 +17279,7 @@
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17351,7 +17351,7 @@
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17429,7 +17429,7 @@
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17503,7 +17503,7 @@
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17577,7 +17577,7 @@
       <c r="O231" t="inlineStr"/>
       <c r="P231" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17655,7 +17655,7 @@
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17725,7 +17725,7 @@
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17799,7 +17799,7 @@
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17873,7 +17873,7 @@
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -17951,7 +17951,7 @@
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -18025,7 +18025,7 @@
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -18099,7 +18099,7 @@
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -18171,7 +18171,7 @@
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -18245,7 +18245,7 @@
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -18319,7 +18319,7 @@
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -18397,7 +18397,7 @@
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -18475,24 +18475,24 @@
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>3388951</t>
+          <t>6303848</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Sauerkraut gekocht</t>
+          <t>Betty Bossi Cindarella Salat</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-naturaplan-bio-sauerkraut-gekocht/p/3388951</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-cindarella-salat/p/6303848</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -18501,10 +18501,10 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F244" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -18513,12 +18513,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -18528,7 +18528,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -18538,12 +18538,12 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Sauerkraut gekocht 2.20 Schweizer Franken</t>
+          <t>Betty Bossi Cindarella Salat 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -18553,50 +18553,50 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>6303848</t>
+          <t>6494628</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Betty Bossi Cindarella Salat</t>
+          <t>Garden Gourmet Vegetarian Balls</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-cindarella-salat/p/6303848</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-vegetarian-balls/p/6494628</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>250g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F245" t="n">
         <v>5</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>2.48/100g</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -18616,65 +18616,65 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>Betty Bossi Cindarella Salat 3.20 Schweizer Franken</t>
+          <t>Garden Gourmet Vegetarian Balls 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>6494628</t>
+          <t>3388951</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Garden Gourmet Vegetarian Balls</t>
+          <t>Betty Bossi Naturaplan Bio Sauerkraut gekocht</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-vegetarian-balls/p/6494628</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-naturaplan-bio-sauerkraut-gekocht/p/3388951</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>250g</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F246" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>2.48/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -18684,7 +18684,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -18694,22 +18694,22 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>Garden Gourmet Vegetarian Balls 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Sauerkraut gekocht 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -18865,7 +18865,7 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -18943,7 +18943,7 @@
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19017,7 +19017,7 @@
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19095,7 +19095,7 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19169,7 +19169,7 @@
       <c r="O252" t="inlineStr"/>
       <c r="P252" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19243,7 +19243,7 @@
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19315,7 +19315,7 @@
       <c r="O254" t="inlineStr"/>
       <c r="P254" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19389,7 +19389,7 @@
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19467,7 +19467,7 @@
       </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19541,7 +19541,7 @@
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19619,7 +19619,7 @@
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19693,7 +19693,7 @@
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19771,7 +19771,7 @@
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19849,7 +19849,7 @@
       </c>
       <c r="P261" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19923,7 +19923,7 @@
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -19997,7 +19997,7 @@
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20071,7 +20071,7 @@
       <c r="O264" t="inlineStr"/>
       <c r="P264" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20149,7 +20149,7 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20223,7 +20223,7 @@
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20297,7 +20297,7 @@
       <c r="O267" t="inlineStr"/>
       <c r="P267" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20369,7 +20369,7 @@
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20447,7 +20447,7 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20525,7 +20525,7 @@
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20677,7 +20677,7 @@
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20751,7 +20751,7 @@
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20829,7 +20829,7 @@
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20907,7 +20907,7 @@
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -20985,7 +20985,7 @@
       </c>
       <c r="P276" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21063,7 +21063,7 @@
       </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21141,7 +21141,7 @@
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21219,7 +21219,7 @@
       </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21293,7 +21293,7 @@
       <c r="O280" t="inlineStr"/>
       <c r="P280" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21367,7 +21367,7 @@
       <c r="O281" t="inlineStr"/>
       <c r="P281" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21441,7 +21441,7 @@
       <c r="O282" t="inlineStr"/>
       <c r="P282" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21519,7 +21519,7 @@
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21671,7 +21671,7 @@
       <c r="O285" t="inlineStr"/>
       <c r="P285" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21749,7 +21749,7 @@
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21827,7 +21827,7 @@
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21885,7 +21885,7 @@
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -21963,7 +21963,7 @@
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -22041,7 +22041,7 @@
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -22119,7 +22119,7 @@
       </c>
       <c r="P291" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -22197,7 +22197,7 @@
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -22271,50 +22271,50 @@
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>6601330</t>
+          <t>6640069</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Naturli Gehacktes vegan (Erbse)</t>
+          <t>Garden Gourmet Vuna</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/naturli-gehacktes-vegan-erbse/p/6601330</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-vuna/p/6640069</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>400g</t>
+          <t>175g</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F294" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>natürli</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1.49/100g</t>
+          <t>3.97/100g</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -22324,7 +22324,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -22339,7 +22339,7 @@
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>Naturli Gehacktes vegan (Erbse) 5.95 Schweizer Franken</t>
+          <t>Garden Gourmet Vuna 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -22349,50 +22349,50 @@
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>6640069</t>
+          <t>6601330</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Garden Gourmet Vuna</t>
+          <t>Naturli Gehacktes vegan (Erbse)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-vuna/p/6640069</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/naturli-gehacktes-vegan-erbse/p/6601330</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>175g</t>
+          <t>400g</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F295" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>natürli</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>3.97/100g</t>
+          <t>1.49/100g</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -22402,7 +22402,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -22417,7 +22417,7 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>Garden Gourmet Vuna 6.95 Schweizer Franken</t>
+          <t>Naturli Gehacktes vegan (Erbse) 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -22427,7 +22427,7 @@
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -22499,7 +22499,7 @@
       <c r="O296" t="inlineStr"/>
       <c r="P296" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -22577,7 +22577,7 @@
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -22651,7 +22651,7 @@
       <c r="O298" t="inlineStr"/>
       <c r="P298" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -22807,7 +22807,7 @@
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -22885,50 +22885,50 @@
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6076339</t>
+          <t>6119260</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Délicorn vegan Geschnetzeltes</t>
+          <t>Naturaplan Bio Suurchabis Campiuns</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-vegan-geschnetzeltes/p/6076339</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/naturaplan-bio-suurchabis-campiuns/p/6119260</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>220g</t>
+          <t>475g</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F302" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bio Campiuns</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>0.69/100g</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -22938,7 +22938,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -22948,12 +22948,12 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>Délicorn vegan Geschnetzeltes 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Suurchabis Campiuns 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22963,50 +22963,50 @@
       </c>
       <c r="P302" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6119260</t>
+          <t>6076339</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Suurchabis Campiuns</t>
+          <t>Délicorn vegan Geschnetzeltes</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/naturaplan-bio-suurchabis-campiuns/p/6119260</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-vegan-geschnetzeltes/p/6076339</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>475g</t>
+          <t>220g</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F303" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Bio Campiuns</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>0.69/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -23026,12 +23026,12 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Suurchabis Campiuns 3.30 Schweizer Franken</t>
+          <t>Délicorn vegan Geschnetzeltes 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -23041,7 +23041,7 @@
       </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -23119,7 +23119,7 @@
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -23197,7 +23197,7 @@
       </c>
       <c r="P305" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -23271,7 +23271,7 @@
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -23341,7 +23341,7 @@
       <c r="O307" t="inlineStr"/>
       <c r="P307" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -23489,7 +23489,7 @@
       <c r="O309" t="inlineStr"/>
       <c r="P309" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -23563,36 +23563,36 @@
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>5610199</t>
+          <t>3410801</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Randen-Stäbli</t>
+          <t>Betty Bossi Naturaplan Bio Alfalfa-Rucola-Sprossen</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/betty-bossi-naturaplan-bio-randen-staebli/p/5610199</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-naturaplan-bio-alfalfa-rucola-sprossen/p/3410801</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>60g</t>
         </is>
       </c>
       <c r="E311" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F311" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -23601,12 +23601,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>0.93/100g</t>
+          <t>4.92/100g</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -23616,7 +23616,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -23626,12 +23626,12 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Randen-Stäbli 2.80 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Alfalfa-Rucola-Sprossen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -23641,36 +23641,36 @@
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>4234715</t>
+          <t>5610199</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Topinambur 500g</t>
+          <t>Betty Bossi Naturaplan Bio Randen-Stäbli</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-topinambur/p/4234715</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/betty-bossi-naturaplan-bio-randen-staebli/p/5610199</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>500g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E312" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F312" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -23679,12 +23679,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>0.93/100g</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -23694,7 +23694,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -23704,44 +23704,48 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Topinambur 500g 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O312" t="inlineStr"/>
+          <t>Betty Bossi Naturaplan Bio Randen-Stäbli 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P312" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>3410801</t>
+          <t>4234715</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Alfalfa-Rucola-Sprossen</t>
+          <t>Naturaplan Bio Topinambur 500g</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-naturaplan-bio-alfalfa-rucola-sprossen/p/3410801</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-topinambur/p/4234715</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>60g</t>
+          <t>500g</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F313" t="n">
         <v>5</v>
@@ -23753,12 +23757,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>4.92/100g</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -23768,7 +23772,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -23778,22 +23782,18 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Alfalfa-Rucola-Sprossen 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O313" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Topinambur 500g 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr"/>
       <c r="P313" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -23867,7 +23867,7 @@
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -23939,7 +23939,7 @@
       <c r="O315" t="inlineStr"/>
       <c r="P315" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24017,7 +24017,7 @@
       </c>
       <c r="P316" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24095,7 +24095,7 @@
       </c>
       <c r="P317" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24169,7 +24169,7 @@
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24247,7 +24247,7 @@
       </c>
       <c r="P319" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24325,7 +24325,7 @@
       </c>
       <c r="P320" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24397,7 +24397,7 @@
       <c r="O321" t="inlineStr"/>
       <c r="P321" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24475,7 +24475,7 @@
       </c>
       <c r="P322" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24549,7 +24549,7 @@
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24623,7 +24623,7 @@
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24695,7 +24695,7 @@
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24771,7 +24771,7 @@
       </c>
       <c r="P326" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24845,7 +24845,7 @@
       <c r="O327" t="inlineStr"/>
       <c r="P327" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24919,7 +24919,7 @@
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -24997,7 +24997,7 @@
       </c>
       <c r="P329" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25151,7 +25151,7 @@
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25229,7 +25229,7 @@
       </c>
       <c r="P332" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25307,7 +25307,7 @@
       </c>
       <c r="P333" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25381,7 +25381,7 @@
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25453,7 +25453,7 @@
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25527,7 +25527,7 @@
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25597,7 +25597,7 @@
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25675,7 +25675,7 @@
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25749,7 +25749,7 @@
       <c r="O339" t="inlineStr"/>
       <c r="P339" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25823,7 +25823,7 @@
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25901,7 +25901,7 @@
       </c>
       <c r="P341" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -25975,7 +25975,7 @@
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -26049,7 +26049,7 @@
       <c r="O343" t="inlineStr"/>
       <c r="P343" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -26127,7 +26127,7 @@
       </c>
       <c r="P344" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -26205,7 +26205,7 @@
       </c>
       <c r="P345" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -26283,7 +26283,7 @@
       </c>
       <c r="P346" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -26357,7 +26357,7 @@
       <c r="O347" t="inlineStr"/>
       <c r="P347" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -26427,7 +26427,7 @@
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -26501,7 +26501,7 @@
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -26579,29 +26579,29 @@
       </c>
       <c r="P350" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6767080</t>
+          <t>6638599</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Marroni soft</t>
+          <t>Betty Bossi Taboulé Salat</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/marroni-soft/p/6767080</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-taboule-salat/p/6638599</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>260g</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
@@ -26615,12 +26615,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>3.95/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -26640,40 +26640,44 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>Marroni soft 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O351" t="inlineStr"/>
+          <t>Betty Bossi Taboulé Salat 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P351" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6638599</t>
+          <t>6767080</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Betty Bossi Taboulé Salat</t>
+          <t>Marroni soft</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-taboule-salat/p/6638599</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/marroni-soft/p/6767080</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>260g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -26687,12 +26691,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>3.95/100g</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -26702,7 +26706,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -26712,22 +26716,18 @@
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>Betty Bossi Taboulé Salat 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O352" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Marroni soft 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr"/>
       <c r="P352" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -26801,7 +26801,7 @@
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -26879,7 +26879,7 @@
       </c>
       <c r="P354" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -26951,7 +26951,7 @@
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -27029,7 +27029,7 @@
       </c>
       <c r="P356" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -27103,7 +27103,7 @@
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -27177,7 +27177,7 @@
       <c r="O358" t="inlineStr"/>
       <c r="P358" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -27255,7 +27255,7 @@
       </c>
       <c r="P359" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -27333,7 +27333,7 @@
       </c>
       <c r="P360" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -27411,7 +27411,7 @@
       </c>
       <c r="P361" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -27489,7 +27489,7 @@
       </c>
       <c r="P362" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -27563,7 +27563,7 @@
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -27637,7 +27637,7 @@
       <c r="O364" t="inlineStr"/>
       <c r="P364" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -27707,7 +27707,7 @@
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -27785,50 +27785,50 @@
       </c>
       <c r="P366" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>3489655</t>
+          <t>5644578</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Schöni Rotkraut gekocht</t>
+          <t>Grill-Champignons</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-rotkraut-gekocht/p/3489655</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/grill-champignons/p/5644578</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>500g</t>
+          <t>350g</t>
         </is>
       </c>
       <c r="E367" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F367" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>0.59/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -27838,7 +27838,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -27848,55 +27848,51 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>Schöni Rotkraut gekocht 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O367" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Grill-Champignons 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr"/>
       <c r="P367" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>4448895</t>
+          <t>3489655</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Betty Bossi Country Salat Shaker</t>
+          <t>Schöni Rotkraut gekocht</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-country-salat-shaker/p/4448895</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-rotkraut-gekocht/p/3489655</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>125g</t>
+          <t>500g</t>
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F368" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
@@ -27906,7 +27902,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>0.59/100g</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -27916,7 +27912,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -27926,51 +27922,51 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>Betty Bossi Country Salat Shaker 2.95 Schweizer Franken</t>
+          <t>Schöni Rotkraut gekocht 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6073361</t>
+          <t>4448895</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box</t>
+          <t>Betty Bossi Country Salat Shaker</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-country-salat-shaker/p/4448895</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>3kg</t>
+          <t>125g</t>
         </is>
       </c>
       <c r="E369" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F369" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -27979,72 +27975,76 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>6.67/1kg</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O369" t="inlineStr"/>
+          <t>Betty Bossi Country Salat Shaker 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P369" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>4227096</t>
+          <t>6073361</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Cima di Rapa</t>
+          <t>Naturaplan Bio Saisonfrüchte Box</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/cima-di-rapa/p/4227096</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>400g</t>
+          <t>3kg</t>
         </is>
       </c>
       <c r="E370" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F370" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -28053,72 +28053,72 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>6.67/1kg</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>Cima di Rapa 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O370" t="inlineStr"/>
       <c r="P370" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>5644578</t>
+          <t>4227096</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Grill-Champignons</t>
+          <t>Cima di Rapa</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/grill-champignons/p/5644578</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/cima-di-rapa/p/4227096</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>350g</t>
+          <t>400g</t>
         </is>
       </c>
       <c r="E371" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F371" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -28127,12 +28127,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -28142,7 +28142,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -28152,139 +28152,135 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>Grill-Champignons 4.95 Schweizer Franken</t>
+          <t>Cima di Rapa 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>6744336</t>
+          <t>4140491</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Veg Rost Chicken</t>
+          <t>Naturaplan Bio Pfirsiche ca. 1kg</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/veg-rost-chicken/p/6744336</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-gartenfruechte/naturaplan-bio-pfirsiche-ca/p/4140491</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>90g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="E372" t="n">
         <v>12</v>
       </c>
       <c r="F372" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>LIVEG</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>4.39/100g</t>
+          <t>8.95/1kg</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-gartenfruechte']</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>Veg Rost Chicken 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O372" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Pfirsiche ca. 1kg 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O372" t="inlineStr"/>
       <c r="P372" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>6798810</t>
+          <t>6744336</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Filet</t>
+          <t>Veg Rost Chicken</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plant-based-filet/p/6798810</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/veg-rost-chicken/p/6744336</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>280g</t>
+          <t>90g</t>
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F373" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>LIVEG</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>4.39/100g</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -28294,7 +28290,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -28309,60 +28305,60 @@
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Filet 8.95 Schweizer Franken</t>
+          <t>Veg Rost Chicken 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P373" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6649013</t>
+          <t>6798810</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Maissalat</t>
+          <t>The Green Mountain plant-based Filet</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-maissalat/p/6649013</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plant-based-filet/p/6798810</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>280g</t>
         </is>
       </c>
       <c r="E374" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F374" t="n">
         <v>4</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>1.48/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -28372,7 +28368,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -28382,51 +28378,51 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Maissalat 2.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Filet 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P374" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6649018</t>
+          <t>6649013</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Quinoa &amp;amp; Süsskartoffel</t>
+          <t>Naturaplan Bio Maissalat</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-quinoa-suesskartoffel/p/6649018</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-maissalat/p/6649013</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>180g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F375" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -28435,12 +28431,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>1.48/100g</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -28450,7 +28446,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -28465,46 +28461,46 @@
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Quinoa &amp;amp; Süsskartoffel 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Maissalat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="P375" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>5721273</t>
+          <t>6649018</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Betty Bossi Zuckermais gekocht</t>
+          <t>Naturaplan Bio Quinoa &amp;amp; Süsskartoffel</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/mais-erbsen-bohnen/betty-bossi-zuckermais-gekocht/p/5721273</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-quinoa-suesskartoffel/p/6649018</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>500g</t>
+          <t>180g</t>
         </is>
       </c>
       <c r="E376" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F376" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -28513,12 +28509,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -28528,7 +28524,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -28538,51 +28534,51 @@
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'mais-erbsen-bohnen']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>Betty Bossi Zuckermais gekocht 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Quinoa &amp;amp; Süsskartoffel 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P376" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>4140491</t>
+          <t>5721273</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pfirsiche ca. 1kg</t>
+          <t>Betty Bossi Zuckermais gekocht</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-gartenfruechte/naturaplan-bio-pfirsiche-ca/p/4140491</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/mais-erbsen-bohnen/betty-bossi-zuckermais-gekocht/p/5721273</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>500g</t>
         </is>
       </c>
       <c r="E377" t="n">
         <v>12</v>
       </c>
       <c r="F377" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -28591,43 +28587,47 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>8.95/1kg</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-gartenfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'mais-erbsen-bohnen']</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pfirsiche ca. 1kg 8.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O377" t="inlineStr"/>
+          <t>Betty Bossi Zuckermais gekocht 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P377" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -28701,7 +28701,7 @@
       <c r="O378" t="inlineStr"/>
       <c r="P378" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -28775,7 +28775,7 @@
       <c r="O379" t="inlineStr"/>
       <c r="P379" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -28853,7 +28853,7 @@
       </c>
       <c r="P380" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -28931,7 +28931,7 @@
       </c>
       <c r="P381" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -29009,7 +29009,7 @@
       </c>
       <c r="P382" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -29083,7 +29083,7 @@
       <c r="O383" t="inlineStr"/>
       <c r="P383" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -29157,7 +29157,7 @@
       <c r="O384" t="inlineStr"/>
       <c r="P384" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="P385" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -29307,7 +29307,7 @@
       <c r="O386" t="inlineStr"/>
       <c r="P386" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -29381,7 +29381,7 @@
       <c r="O387" t="inlineStr"/>
       <c r="P387" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -29459,7 +29459,7 @@
       </c>
       <c r="P388" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -29533,7 +29533,7 @@
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -29611,7 +29611,7 @@
       </c>
       <c r="P390" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -29685,7 +29685,7 @@
       <c r="O391" t="inlineStr"/>
       <c r="P391" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -29759,7 +29759,7 @@
       <c r="O392" t="inlineStr"/>
       <c r="P392" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -29837,29 +29837,29 @@
       </c>
       <c r="P393" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>6650171</t>
+          <t>6402987</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkraut</t>
+          <t>Peperoni farbig</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/naturaplan-bio-rotkraut/p/6650171</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/peperoni/peperoni-farbig/p/6402987</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>400g</t>
+          <t>450g</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -29873,12 +29873,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>1.07/100g</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -29888,7 +29888,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -29898,40 +29898,40 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'peperoni']</t>
         </is>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkraut 2.95 Schweizer Franken</t>
+          <t>Peperoni farbig 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O394" t="inlineStr"/>
       <c r="P394" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>6402987</t>
+          <t>6650171</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Peperoni farbig</t>
+          <t>Naturaplan Bio Rotkraut</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/peperoni/peperoni-farbig/p/6402987</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/naturaplan-bio-rotkraut/p/6650171</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>450g</t>
+          <t>400g</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -29945,12 +29945,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>1.07/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -29960,7 +29960,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -29970,18 +29970,18 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'peperoni']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>Peperoni farbig 4.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Rotkraut 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O395" t="inlineStr"/>
       <c r="P395" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30059,7 +30059,7 @@
       </c>
       <c r="P396" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30137,7 +30137,7 @@
       </c>
       <c r="P397" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30211,7 +30211,7 @@
       <c r="O398" t="inlineStr"/>
       <c r="P398" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30283,7 +30283,7 @@
       <c r="O399" t="inlineStr"/>
       <c r="P399" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30357,7 +30357,7 @@
       </c>
       <c r="P400" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30433,7 +30433,7 @@
       </c>
       <c r="P401" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30511,7 +30511,7 @@
       </c>
       <c r="P402" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30589,7 +30589,7 @@
       </c>
       <c r="P403" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30667,7 +30667,7 @@
       </c>
       <c r="P404" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30745,7 +30745,7 @@
       </c>
       <c r="P405" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30819,7 +30819,7 @@
       <c r="O406" t="inlineStr"/>
       <c r="P406" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30893,7 +30893,7 @@
       <c r="O407" t="inlineStr"/>
       <c r="P407" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -30971,7 +30971,7 @@
       </c>
       <c r="P408" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -31049,7 +31049,7 @@
       </c>
       <c r="P409" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -31127,7 +31127,7 @@
       </c>
       <c r="P410" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -31201,7 +31201,7 @@
       <c r="O411" t="inlineStr"/>
       <c r="P411" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -31279,7 +31279,7 @@
       </c>
       <c r="P412" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -31353,7 +31353,7 @@
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -31431,7 +31431,7 @@
       </c>
       <c r="P414" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -31505,7 +31505,7 @@
       <c r="O415" t="inlineStr"/>
       <c r="P415" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -31577,7 +31577,7 @@
       <c r="O416" t="inlineStr"/>
       <c r="P416" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -31655,50 +31655,50 @@
       </c>
       <c r="P417" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>6640969</t>
+          <t>6738781</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Happy Vegi Butcher Vacon</t>
+          <t>Frühkartoffeln Noirmoutier</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/happy-vegi-butcher-vacon/p/6640969</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/fruehkartoffeln-noirmoutier/p/6738781</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>96g</t>
+          <t>500g</t>
         </is>
       </c>
       <c r="E418" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F418" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>Happy Vegi Butcher</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>5.16/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -31708,7 +31708,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -31718,65 +31718,61 @@
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>Happy Vegi Butcher Vacon 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O418" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Frühkartoffeln Noirmoutier 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O418" t="inlineStr"/>
       <c r="P418" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>6738781</t>
+          <t>6640969</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Frühkartoffeln Noirmoutier</t>
+          <t>Happy Vegi Butcher Vacon</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/fruehkartoffeln-noirmoutier/p/6738781</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/happy-vegi-butcher-vacon/p/6640969</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>500g</t>
+          <t>96g</t>
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F419" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Happy Vegi Butcher</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>5.16/100g</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -31786,7 +31782,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -31796,18 +31792,22 @@
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>Frühkartoffeln Noirmoutier 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O419" t="inlineStr"/>
+          <t>Happy Vegi Butcher Vacon 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P419" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -31881,7 +31881,7 @@
       <c r="O420" t="inlineStr"/>
       <c r="P420" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -31959,7 +31959,7 @@
       </c>
       <c r="P421" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -32033,7 +32033,7 @@
       <c r="O422" t="inlineStr"/>
       <c r="P422" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -32111,7 +32111,7 @@
       </c>
       <c r="P423" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -32189,7 +32189,7 @@
       </c>
       <c r="P424" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -32263,7 +32263,7 @@
       <c r="O425" t="inlineStr"/>
       <c r="P425" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -32335,7 +32335,7 @@
       <c r="O426" t="inlineStr"/>
       <c r="P426" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -32413,34 +32413,36 @@
       </c>
       <c r="P427" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>3544555</t>
+          <t>5807061</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Spargeln weiss Schweiz</t>
+          <t>Naturaplan Bio ProSpecieRara Radieschen rot/weiss</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-weiss-schweiz/p/3544555</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/radieschen-rettich/naturaplan-bio-prospecierara-radieschen-rotweiss/p/5807061</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>500g</t>
-        </is>
-      </c>
-      <c r="E428" t="inlineStr"/>
+          <t>250g</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>5</v>
+      </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -32449,12 +32451,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -32464,7 +32466,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -32474,47 +32476,45 @@
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'radieschen-rettich']</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>Spargeln weiss Schweiz 9.95 Schweizer Franken</t>
+          <t>Naturaplan Bio ProSpecieRara Radieschen rot/weiss 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O428" t="inlineStr"/>
       <c r="P428" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>5807061</t>
+          <t>3544555</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Naturaplan Bio ProSpecieRara Radieschen rot/weiss</t>
+          <t>Spargeln weiss Schweiz</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/radieschen-rettich/naturaplan-bio-prospecierara-radieschen-rotweiss/p/5807061</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-weiss-schweiz/p/3544555</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>250g</t>
-        </is>
-      </c>
-      <c r="E429" t="n">
-        <v>5</v>
-      </c>
+          <t>500g</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr"/>
       <c r="F429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -32523,12 +32523,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -32538,7 +32538,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -32548,18 +32548,18 @@
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'radieschen-rettich']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>Naturaplan Bio ProSpecieRara Radieschen rot/weiss 3.95 Schweizer Franken</t>
+          <t>Spargeln weiss Schweiz 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -32631,24 +32631,24 @@
       <c r="O430" t="inlineStr"/>
       <c r="P430" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>3870695</t>
+          <t>4285052</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Spargeln grün Wallis</t>
+          <t>Spargeln grün Züribiet</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen-wallis/p/3870695</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen-zueribiet/p/4285052</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -32657,12 +32657,16 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F431" t="n">
-        <v>5</v>
-      </c>
-      <c r="G431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H431" t="inlineStr">
         <is>
           <t>10.95</t>
@@ -32695,42 +32699,42 @@
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>Spargeln grün Wallis 10.95 Schweizer Franken</t>
+          <t>Spargeln grün Züribiet 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O431" t="inlineStr"/>
       <c r="P431" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>4285052</t>
+          <t>6148848</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Spargeln grün Züribiet</t>
+          <t>Insalata di Tonno Pasta</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen-zueribiet/p/4285052</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/insalata-di-tonno-pasta/p/6148848</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>500g</t>
+          <t>250g</t>
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F432" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -32739,12 +32743,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>2.19/100g</t>
+          <t>1.18/100g</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -32754,7 +32758,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -32764,35 +32768,35 @@
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>Spargeln grün Züribiet 10.95 Schweizer Franken</t>
+          <t>Insalata di Tonno Pasta 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O432" t="inlineStr"/>
       <c r="P432" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>6148848</t>
+          <t>6148847</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Insalata di Tonno Pasta</t>
+          <t>Insalata di Tonno Nicoise</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/insalata-di-tonno-pasta/p/6148848</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/insalata-di-tonno-nicoise/p/6148847</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -32801,10 +32805,10 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F433" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -32843,56 +32847,52 @@
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>Insalata di Tonno Pasta 2.95 Schweizer Franken</t>
+          <t>Insalata di Tonno Nicoise 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O433" t="inlineStr"/>
       <c r="P433" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>6719628</t>
+          <t>3870695</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Délicorn Bio Rostbratwürstli</t>
+          <t>Spargeln grün Wallis</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-bio-rostbratwuerstli/p/6719628</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen-wallis/p/3870695</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>500g</t>
         </is>
       </c>
       <c r="E434" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F434" t="n">
-        <v>2</v>
-      </c>
-      <c r="G434" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G434" t="inlineStr"/>
       <c r="H434" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>2.19/100g</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -32902,7 +32902,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -32912,51 +32912,47 @@
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>Délicorn Bio Rostbratwürstli 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O434" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Spargeln grün Wallis 10.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O434" t="inlineStr"/>
       <c r="P434" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>6148847</t>
+          <t>6719628</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Insalata di Tonno Nicoise</t>
+          <t>Délicorn Bio Rostbratwürstli</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/insalata-di-tonno-nicoise/p/6148847</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-bio-rostbratwuerstli/p/6719628</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>250g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F435" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -32965,12 +32961,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>1.18/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -32980,7 +32976,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -32990,18 +32986,22 @@
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>Insalata di Tonno Nicoise 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O435" t="inlineStr"/>
+          <t>Délicorn Bio Rostbratwürstli 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P435" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33079,7 +33079,7 @@
       </c>
       <c r="P436" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33151,7 +33151,7 @@
       <c r="O437" t="inlineStr"/>
       <c r="P437" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33229,7 +33229,7 @@
       </c>
       <c r="P438" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33303,7 +33303,7 @@
       <c r="O439" t="inlineStr"/>
       <c r="P439" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33381,7 +33381,7 @@
       </c>
       <c r="P440" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33459,7 +33459,7 @@
       </c>
       <c r="P441" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33521,7 +33521,7 @@
       </c>
       <c r="P442" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33593,7 +33593,7 @@
       <c r="O443" t="inlineStr"/>
       <c r="P443" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33671,7 +33671,7 @@
       </c>
       <c r="P444" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33749,7 +33749,7 @@
       </c>
       <c r="P445" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33827,7 +33827,7 @@
       </c>
       <c r="P446" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33899,7 +33899,7 @@
       <c r="O447" t="inlineStr"/>
       <c r="P447" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -33977,7 +33977,7 @@
       </c>
       <c r="P448" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -34053,7 +34053,7 @@
       </c>
       <c r="P449" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -34131,7 +34131,7 @@
       </c>
       <c r="P450" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -34205,7 +34205,7 @@
       <c r="O451" t="inlineStr"/>
       <c r="P451" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -34283,7 +34283,7 @@
       </c>
       <c r="P452" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -34357,7 +34357,7 @@
       <c r="O453" t="inlineStr"/>
       <c r="P453" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="P454" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -34513,7 +34513,7 @@
       </c>
       <c r="P455" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -34591,7 +34591,7 @@
       </c>
       <c r="P456" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -34665,36 +34665,34 @@
       <c r="O457" t="inlineStr"/>
       <c r="P457" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>3090380</t>
+          <t>6719196</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kirschen</t>
+          <t>Betty Bossi Coleslaw Tricolore</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/beeren/naturaplan-bio-kirschen/p/3090380</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-coleslaw-tricolore/p/6719196</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>500g</t>
-        </is>
-      </c>
-      <c r="E458" t="n">
-        <v>22</v>
-      </c>
+          <t>250g</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr"/>
       <c r="F458" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -34703,12 +34701,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>1.94/100g</t>
+          <t>1.04/100g</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -34718,7 +34716,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -34728,45 +34726,51 @@
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'beeren']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kirschen 9.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O458" t="inlineStr"/>
+          <t>Betty Bossi Coleslaw Tricolore 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P458" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>6719196</t>
+          <t>3090380</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Betty Bossi Coleslaw Tricolore</t>
+          <t>Naturaplan Bio Kirschen</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-coleslaw-tricolore/p/6719196</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/beeren/naturaplan-bio-kirschen/p/3090380</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>250g</t>
-        </is>
-      </c>
-      <c r="E459" t="inlineStr"/>
+          <t>500g</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>22</v>
+      </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -34775,12 +34779,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>1.04/100g</t>
+          <t>1.94/100g</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -34790,7 +34794,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -34800,22 +34804,18 @@
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'beeren']</t>
         </is>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>Betty Bossi Coleslaw Tricolore 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O459" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kirschen 9.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O459" t="inlineStr"/>
       <c r="P459" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -34891,7 +34891,7 @@
       </c>
       <c r="P460" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -34969,7 +34969,7 @@
       </c>
       <c r="P461" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -35043,7 +35043,7 @@
       <c r="O462" t="inlineStr"/>
       <c r="P462" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -35121,7 +35121,7 @@
       </c>
       <c r="P463" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -35199,7 +35199,7 @@
       </c>
       <c r="P464" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -35275,7 +35275,7 @@
       </c>
       <c r="P465" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -35349,7 +35349,7 @@
       <c r="O466" t="inlineStr"/>
       <c r="P466" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -35427,7 +35427,7 @@
       </c>
       <c r="P467" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -35499,24 +35499,24 @@
       <c r="O468" t="inlineStr"/>
       <c r="P468" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>6499458</t>
+          <t>4826243</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Betty Bossi Elsa Salat</t>
+          <t>Naturaplan Bio Pro Specia Rara Kohlrabi Blaro</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-elsa-salat/p/6499458</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/naturaplan-bio-pro-specia-rara-kohlrabi-blaro/p/4826243</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -35524,9 +35524,11 @@
           <t>300g</t>
         </is>
       </c>
-      <c r="E469" t="inlineStr"/>
+      <c r="E469" t="n">
+        <v>4</v>
+      </c>
       <c r="F469" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -35560,51 +35562,45 @@
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
         </is>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>Betty Bossi Elsa Salat 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O469" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Pro Specia Rara Kohlrabi Blaro 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O469" t="inlineStr"/>
       <c r="P469" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>6353414</t>
+          <t>6499458</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Betty Bossi gefüllte Champignons</t>
+          <t>Betty Bossi Elsa Salat</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/betty-bossi-gefuellte-champignons/p/6353414</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-elsa-salat/p/6499458</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>270g</t>
-        </is>
-      </c>
-      <c r="E470" t="n">
-        <v>1</v>
-      </c>
+          <t>300g</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -35613,12 +35609,12 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>2.57/100g</t>
+          <t>1.32/100g</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -35628,7 +35624,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -35638,52 +35634,52 @@
       </c>
       <c r="M470" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>Betty Bossi gefüllte Champignons 6.95 Schweizer Franken</t>
+          <t>Betty Bossi Elsa Salat 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="P470" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>6101551</t>
+          <t>6353414</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Délicorn Grillspiesse</t>
+          <t>Betty Bossi gefüllte Champignons</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-grillspiesse/p/6101551</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/betty-bossi-gefuellte-champignons/p/6353414</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>190g</t>
+          <t>270g</t>
         </is>
       </c>
       <c r="E471" t="n">
+        <v>1</v>
+      </c>
+      <c r="F471" t="n">
         <v>5</v>
       </c>
-      <c r="F471" t="n">
-        <v>4.5</v>
-      </c>
       <c r="G471" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -35696,7 +35692,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>3.66/100g</t>
+          <t>2.57/100g</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -35706,7 +35702,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -35716,48 +35712,48 @@
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>Délicorn Grillspiesse 6.95 Schweizer Franken</t>
+          <t>Betty Bossi gefüllte Champignons 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="P471" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>4160317</t>
+          <t>6101551</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Délicorn BBQ Grillsteak 2 x100g</t>
+          <t>Délicorn Grillspiesse</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-bbq-grillsteak-2-x100g/p/4160317</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-grillspiesse/p/6101551</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>190g</t>
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F472" t="n">
         <v>4.5</v>
@@ -35769,12 +35765,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>3.66/100g</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -35784,7 +35780,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -35799,7 +35795,7 @@
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>Délicorn BBQ Grillsteak 2 x100g 5.50 Schweizer Franken</t>
+          <t>Délicorn Grillspiesse 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -35809,50 +35805,50 @@
       </c>
       <c r="P472" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>5835333</t>
+          <t>4160317</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Issro Datteln getrocknet</t>
+          <t>Délicorn BBQ Grillsteak 2 x100g</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/issro-datteln-getrocknet/p/5835333</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-bbq-grillsteak-2-x100g/p/4160317</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>400g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F473" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>Issro</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -35862,7 +35858,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -35872,65 +35868,65 @@
       </c>
       <c r="M473" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>Issro Datteln getrocknet 7.60 Schweizer Franken</t>
+          <t>Délicorn BBQ Grillsteak 2 x100g 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>['vegan']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P473" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>6723054</t>
+          <t>5835333</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Yolo Hot Dog Sausages 4x40g</t>
+          <t>Issro Datteln getrocknet</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-hot-dog-sausages-4x40g/p/6723054</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/issro-datteln-getrocknet/p/5835333</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>160g</t>
+          <t>400g</t>
         </is>
       </c>
       <c r="E474" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F474" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Issro</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>2.47/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -35940,7 +35936,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -35950,55 +35946,55 @@
       </c>
       <c r="M474" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
         </is>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>Yolo Hot Dog Sausages 4x40g 3.95 Schweizer Franken</t>
+          <t>Issro Datteln getrocknet 7.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan']</t>
         </is>
       </c>
       <c r="P474" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>4826243</t>
+          <t>6723054</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Specia Rara Kohlrabi Blaro</t>
+          <t>Yolo Hot Dog Sausages 4x40g</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/naturaplan-bio-pro-specia-rara-kohlrabi-blaro/p/4826243</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-hot-dog-sausages-4x40g/p/6723054</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>160g</t>
         </is>
       </c>
       <c r="E475" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F475" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
@@ -36008,7 +36004,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>1.32/100g</t>
+          <t>2.47/100g</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -36018,7 +36014,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -36028,18 +36024,22 @@
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Specia Rara Kohlrabi Blaro 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O475" t="inlineStr"/>
+          <t>Yolo Hot Dog Sausages 4x40g 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P475" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -36117,7 +36117,7 @@
       </c>
       <c r="P476" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -36193,7 +36193,7 @@
       </c>
       <c r="P477" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -36271,7 +36271,7 @@
       </c>
       <c r="P478" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -36349,7 +36349,7 @@
       </c>
       <c r="P479" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -36421,7 +36421,7 @@
       <c r="O480" t="inlineStr"/>
       <c r="P480" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -36497,7 +36497,7 @@
       </c>
       <c r="P481" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -36573,7 +36573,7 @@
       </c>
       <c r="P482" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -36651,7 +36651,7 @@
       </c>
       <c r="P483" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -36725,7 +36725,7 @@
       <c r="O484" t="inlineStr"/>
       <c r="P484" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -36799,7 +36799,7 @@
       <c r="O485" t="inlineStr"/>
       <c r="P485" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -36877,7 +36877,7 @@
       </c>
       <c r="P486" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -36953,7 +36953,7 @@
       </c>
       <c r="P487" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -37029,7 +37029,7 @@
       </c>
       <c r="P488" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -37107,7 +37107,7 @@
       </c>
       <c r="P489" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -37183,7 +37183,7 @@
       </c>
       <c r="P490" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -37259,7 +37259,7 @@
       </c>
       <c r="P491" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -37337,7 +37337,7 @@
       </c>
       <c r="P492" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -37415,7 +37415,7 @@
       </c>
       <c r="P493" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -37493,7 +37493,7 @@
       </c>
       <c r="P494" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -37567,7 +37567,7 @@
       <c r="O495" t="inlineStr"/>
       <c r="P495" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -37643,7 +37643,7 @@
       </c>
       <c r="P496" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -37721,7 +37721,7 @@
       </c>
       <c r="P497" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -37797,7 +37797,7 @@
       </c>
       <c r="P498" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="P499" t="inlineStr">
         <is>
-          <t>2022-05-19 13:56:25</t>
+          <t>2022-05-19 20:50:54</t>
         </is>
       </c>
     </row>
